--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2590.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2590.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7786270389081711</v>
+        <v>1.577462911605835</v>
       </c>
       <c r="B1">
-        <v>1.273141683968213</v>
+        <v>2.905165195465088</v>
       </c>
       <c r="C1">
-        <v>3.334423968661177</v>
+        <v>5.953004837036133</v>
       </c>
       <c r="D1">
-        <v>2.340632672827243</v>
+        <v>2.178303956985474</v>
       </c>
       <c r="E1">
-        <v>1.021491662160724</v>
+        <v>0.7835332751274109</v>
       </c>
     </row>
   </sheetData>
